--- a/Ver2/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
+++ b/Ver2/Notion data/Lũy kế tháng LONG XUYÊN.xlsx
@@ -873,7 +873,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>21000000</v>
+        <v>23500000</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="AA3" t="n">
-        <v>63642000</v>
+        <v>61142000</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>124200000</v>
+        <v>121700000</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="AH3" t="n">
-        <v>106500000</v>
+        <v>104000000</v>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>16500000</v>
+        <v>27500000</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="AA4" t="n">
-        <v>66199000</v>
+        <v>55199000</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>146400000</v>
+        <v>135400000</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="AH4" t="n">
-        <v>129400000</v>
+        <v>118400000</v>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>5000000</v>
+        <v>5500000</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="AA5" t="n">
-        <v>18126000</v>
+        <v>17626000</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>46450000</v>
+        <v>45950000</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="AH5" t="n">
-        <v>43150000</v>
+        <v>42650000</v>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>40500000</v>
+        <v>54500000</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="AA7" t="n">
-        <v>43992000</v>
+        <v>29992000</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>105000000</v>
+        <v>91000000</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="AH7" t="n">
-        <v>105000000</v>
+        <v>91000000</v>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2886,7 +2886,7 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>7000000</v>
+        <v>24000000</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="AA13" t="n">
-        <v>88500000</v>
+        <v>71500000</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>91000000</v>
+        <v>74000000</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="AH13" t="n">
-        <v>84000000</v>
+        <v>67000000</v>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
